--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_ThermalRelay_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_ThermalRelay_19DX101.xlsx
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
